--- a/G01-项目-PC电商项目/商城项目分组.xlsx
+++ b/G01-项目-PC电商项目/商城项目分组.xlsx
@@ -71,25 +71,30 @@
     <t>王志玉</t>
   </si>
   <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>陆翔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞿凡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>茹浪</t>
-  </si>
-  <si>
-    <t>瞿凡</t>
-  </si>
-  <si>
-    <t>王伟</t>
-  </si>
-  <si>
-    <t>徐佳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭纳敏, 徐佳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪羽丰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>杨赛舟</t>
-  </si>
-  <si>
-    <t>汪羽丰</t>
-  </si>
-  <si>
-    <t>陆翔</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -241,23 +246,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,7 +568,7 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -593,10 +598,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -605,8 +610,8 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -615,7 +620,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -625,50 +630,50 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -680,8 +685,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -693,8 +698,8 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
@@ -706,8 +711,8 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
@@ -719,8 +724,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
@@ -732,8 +737,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
@@ -745,8 +750,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -758,8 +763,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
@@ -771,8 +776,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
@@ -784,8 +789,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
@@ -797,110 +802,110 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="13"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="13"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="13"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="13"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="13"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="13"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="13"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="6"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/G01-项目-PC电商项目/商城项目分组.xlsx
+++ b/G01-项目-PC电商项目/商城项目分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16220" windowHeight="9100"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16220" windowHeight="9040"/>
   </bookViews>
   <sheets>
     <sheet name="分组列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>地区</t>
   </si>
@@ -199,13 +199,40 @@
   <si>
     <t>https://github.com/Wayne999999/liangcang009.git</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qxu1141770290.my3w.com/cs-rulang/cs-qiushuai/liangcang/liangcang-shouye-cs-qiushuai.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">访问密码：540153402 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.linran8.top/cs-zhangjiaheng/index.html</t>
+  </si>
+  <si>
+    <t>http://qxu1141770290.my3w.com/cs-wangwei/</t>
+  </si>
+  <si>
+    <t>ftp://web1708@firehoo.top:web1708@43.240.31.77/cs-xiaopeiyin/granary/index.html</t>
+  </si>
+  <si>
+    <t>www.linran8.top/cs_yangsaizhou/liangcang/index.html</t>
+  </si>
+  <si>
+    <t>http://qxu1141770290.my3w.com/cs-wzy/liangcang/index.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +245,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,6 +254,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,6 +284,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -347,101 +384,107 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -756,228 +799,248 @@
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="69.81640625" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="4" max="4" width="55.6328125" customWidth="1"/>
+    <col min="5" max="5" width="109.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1">
-      <c r="A1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:10" ht="25" customHeight="1">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="25" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="25" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="25" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" ht="25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14" t="s">
+      <c r="E7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="25" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="25" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="25" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1" ht="25" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="25" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="22" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="25" customHeight="1">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="25" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="25" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="25" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:10" s="12" customFormat="1" ht="25" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -993,8 +1056,9 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>